--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -500,7 +500,19 @@
     <t>5. Track existing project &lt;directory path&gt; git init or got to the specific path and click on GIT Bash here  and type the command</t>
   </si>
   <si>
-    <t>7. Adding files to git repo</t>
+    <t>7. Adding files to git repo - git add *.txt</t>
+  </si>
+  <si>
+    <t>8. Git status - to check all files are added</t>
+  </si>
+  <si>
+    <t>9. git commit -m "comments" to commits code to local repo</t>
+  </si>
+  <si>
+    <t>10. git remote add origin https://github.com/nikhilg37/AppiumLearning.git</t>
+  </si>
+  <si>
+    <t>11 git push -u origin master or branch</t>
   </si>
 </sst>
 </file>
@@ -1486,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1542,8 +1554,23 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9">
-        <v>8</v>
+      <c r="B9" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="B11" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Jenkins" sheetId="10" r:id="rId10"/>
     <sheet name="Mobile app testing" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="154">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -513,6 +513,128 @@
   </si>
   <si>
     <t>11 git push -u origin master or branch</t>
+  </si>
+  <si>
+    <t>Basic testing done</t>
+  </si>
+  <si>
+    <t>Installation
+Application launching without having network
+Uninstallation of app
+Orientation of app if it supports
+Testing application performance on a different kind of devices and network scenarios
+Testing the application response how it is responding
+Testing application during getting calls,messages</t>
+  </si>
+  <si>
+    <t>Different types of apps</t>
+  </si>
+  <si>
+    <t>Native Application– Native app installed from application store like Android’s google play and apple’ app store. The application which can be installed into your devices and run are known as native application for E.G. whats App, Angry birds etc.
+Web Application– Web applications runs from mobile web browsers like Chrome, Firefox, Opera, Safari etc using mobile network or WIFI. E.G. of web browser applications are m.facebook.com, m.gmail.com, m.yahoo.com, m.rediffmail.com etc.
+Hybrid Application- Hybrid apps are combinations of native app and web app. They can run on devices or offline and are written using web technologies like HTML5 and CSS. For E.G. ebay, flipkart etc</t>
+  </si>
+  <si>
+    <t>android and IOS</t>
+  </si>
+  <si>
+    <t>.apk, .ipa</t>
+  </si>
+  <si>
+    <t>Webdriver scripts sends ---&gt; automation commands in form of json via http response.
+Appium server which contains node.js executes those commands on client.
+Client sends back the message to appium server.
+Appium server logs the result in the console.</t>
+  </si>
+  <si>
+    <t>used to find the locators just like fire bug</t>
+  </si>
+  <si>
+    <t>Appium code flow</t>
+  </si>
+  <si>
+    <t>Test base (base package)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Set desired capabilities - browsername,platformname,devicename,platformversion</t>
+  </si>
+  <si>
+    <t>Load OR prop file</t>
+  </si>
+  <si>
+    <t>Load excel</t>
+  </si>
+  <si>
+    <t>Logging in to app</t>
+  </si>
+  <si>
+    <t>Logout from the app</t>
+  </si>
+  <si>
+    <t>Before test</t>
+  </si>
+  <si>
+    <t>After test</t>
+  </si>
+  <si>
+    <t>Before Suite</t>
+  </si>
+  <si>
+    <t>Initialize OR prop - objects of each webelements are stored here</t>
+  </si>
+  <si>
+    <t>Initialize excel - Contains class names as keywords with Y or N if it has to be run or not</t>
+  </si>
+  <si>
+    <t>Properties package</t>
+  </si>
+  <si>
+    <t>OR properties</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Test Case Package</t>
+  </si>
+  <si>
+    <t>Change password functionality</t>
+  </si>
+  <si>
+    <t>Navigation to all screens and trip count check</t>
+  </si>
+  <si>
+    <t>Start and end trip flow</t>
+  </si>
+  <si>
+    <t>Intrip expenses check</t>
+  </si>
+  <si>
+    <t>Intrip change and full amount check</t>
+  </si>
+  <si>
+    <t>Assert command to check whether the test case passed or failed</t>
   </si>
 </sst>
 </file>
@@ -567,7 +689,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
@@ -575,6 +697,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1092,15 +1220,81 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="71" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="120">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="210">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1109,7 +1303,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1278,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1316,10 +1510,16 @@
       <c r="A4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60">
       <c r="A5" t="s">
         <v>98</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60">
@@ -1342,12 +1542,183 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="83.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45">
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:E8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1500,7 +1871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="678" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Jenkins" sheetId="10" r:id="rId10"/>
     <sheet name="Mobile app testing" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="190">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -65,24 +65,12 @@
     <t>how to connect to DB by using selenium</t>
   </si>
   <si>
-    <t>Diff b/w Junit/TestNG</t>
-  </si>
-  <si>
-    <t>Annotations in TestNG</t>
-  </si>
-  <si>
     <t>Reporting in selenium</t>
   </si>
   <si>
     <t>Quit and close</t>
   </si>
   <si>
-    <t>Framework designing</t>
-  </si>
-  <si>
-    <t>use of data provider</t>
-  </si>
-  <si>
     <t>Programmes</t>
   </si>
   <si>
@@ -96,9 +84,6 @@
   </si>
   <si>
     <t>In webpage how do u know a check box,radio button is present</t>
-  </si>
-  <si>
-    <t>excel reading and writing and printing</t>
   </si>
   <si>
     <t>Difference b/w findElement and findElements</t>
@@ -272,9 +257,6 @@
     <t>Finds 1st element in current web,Finds all web elements in webpage</t>
   </si>
   <si>
-    <t>implicit,explicit,fluent</t>
-  </si>
-  <si>
     <t>Robot class</t>
   </si>
   <si>
@@ -308,27 +290,6 @@
   </si>
   <si>
     <t>Installation and execution details</t>
-  </si>
-  <si>
-    <t>TestNG parameters</t>
-  </si>
-  <si>
-    <t>Priority = 1,0</t>
-  </si>
-  <si>
-    <t>enabled = true,false</t>
-  </si>
-  <si>
-    <t>dependsonmethod</t>
-  </si>
-  <si>
-    <t>Parameterized test</t>
-  </si>
-  <si>
-    <t>Passing parameters using dataproviders</t>
-  </si>
-  <si>
-    <t>Passing parameters using testNG.xml - http://www.tutorialspoint.com/testng/testng_parameterized_test.htm</t>
   </si>
   <si>
     <t>By changing number of arguments
@@ -636,12 +597,307 @@
   <si>
     <t>Assert command to check whether the test case passed or failed</t>
   </si>
+  <si>
+    <t>UTIL packages</t>
+  </si>
+  <si>
+    <t>Excel Reader program</t>
+  </si>
+  <si>
+    <t>KeyWord Driven - class file containing static keywords</t>
+  </si>
+  <si>
+    <t>Test Util File - Program which reads data from excel and executes the test case if keyword = "Y"</t>
+  </si>
+  <si>
+    <t>Page Objects - each webelement is treated as separate method and called in test case package</t>
+  </si>
+  <si>
+    <t>PageObjectMethod_Navigation</t>
+  </si>
+  <si>
+    <t>PageObjectMethod_ChangePassword</t>
+  </si>
+  <si>
+    <t>PageObjectMethod_IntripCHange</t>
+  </si>
+  <si>
+    <t>PageObjectMethod_TripFlow</t>
+  </si>
+  <si>
+    <t>Libraries</t>
+  </si>
+  <si>
+    <t>Maven dependencies</t>
+  </si>
+  <si>
+    <t>APK folder</t>
+  </si>
+  <si>
+    <t>TestNG O/P</t>
+  </si>
+  <si>
+    <t>TestNG Groups &amp; depends</t>
+  </si>
+  <si>
+    <t>at Test(groups = {"car"})</t>
+  </si>
+  <si>
+    <t>at Test(dependsOnMethods = {"openBrowser"})</t>
+  </si>
+  <si>
+    <t>TestNG prioritizing &amp; sequencing</t>
+  </si>
+  <si>
+    <t>at Test(priority = 1)</t>
+  </si>
+  <si>
+    <t>at Test(priority = 1 , enabled = false)</t>
+  </si>
+  <si>
+    <t>TestNG reporters and assert</t>
+  </si>
+  <si>
+    <t>TestNG Parameter &amp; dataprovider</t>
+  </si>
+  <si>
+    <t>TestNG listners</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t>Benefits of TestNG</t>
+  </si>
+  <si>
+    <t>There are number of benefits but from Selenium perspective, major advantages of TestNG are :</t>
+  </si>
+  <si>
+    <r>
+      <t>1. It gives the ability to produce </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF38393A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HTML Reports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF38393A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> of execution</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Annotations</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF38393A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF38393A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>made testers life easy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Test cases can be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF38393A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Grouped &amp; Prioritized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF38393A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> more easily</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. Parallel</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF38393A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF38393A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>testing is possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. Generates </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF38393A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Logs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6. Data </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF38393A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parameterization</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF38393A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF38393A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>is possible</t>
+    </r>
+  </si>
+  <si>
+    <t>In selenium there are two types of logging. High level logging and Low level logging. In low level logging you try to produce logs for the every step you take or every action you make in your automation script. In high  level logging you just try to capture main events of your test.</t>
+  </si>
+  <si>
+    <t>Log4J logging - log.info</t>
+  </si>
+  <si>
+    <t>TestNG logging - report.console</t>
+  </si>
+  <si>
+    <t>Assert command stops execution when it fails</t>
+  </si>
+  <si>
+    <t>Assert.assertTrue(),Assert.assertFalse()</t>
+  </si>
+  <si>
+    <t>Assert.assertEquals()</t>
+  </si>
+  <si>
+    <t>at Parameters({"sUsername" , "sPassword"}) - parameters would be passed values in testng.xml</t>
+  </si>
+  <si>
+    <t>&lt;paramter name = "sUsername" value = "test1"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;paramter name = "sUsername" value = "test2"/&gt;</t>
+  </si>
+  <si>
+    <t>Parameterization - reading user name and pass and storing in any test case program. Apache POI API</t>
+  </si>
+  <si>
+    <t>atDataProvider(name = "Authentication")
+  public static Object[][] credentials() {
+        return new Object[][] { { "testuser_1", "Test@123" }, { "testuser_1", "Test@123" }};
+  }
+  // Here we are calling the Data Provider object with its Name
+  atTest(dataProvider = "Authentication")</t>
+  </si>
+  <si>
+    <t>ISuiteListener - onStart() &amp; onFinish()</t>
+  </si>
+  <si>
+    <t>ITestListner - OnStart(),OnFInsih(),OnTestFailure(),OnTestSkipped()</t>
+  </si>
+  <si>
+    <t>public class Listener implements ITestListener, ISuiteListener, IInvokedMethodListener {
+ // This belongs to ISuiteListener and will execute before the Suite start
+ atOverride
+ public void onStart(ISuite arg0) {
+  Reporter.log("About to begin executing Suite " + arg0.getName(), true);
+ }
+ // This belongs to ISuiteListener and will execute, once the Suite is finished
+ atOverride
+ public void onFinish(ISuite arg0) {
+  Reporter.log("About to end executing Suite " + arg0.getName(), true);</t>
+  </si>
+  <si>
+    <t>selectbyvalue,index.visibletext</t>
+  </si>
+  <si>
+    <t>elementnot visible,ElementNotSelectableException,NoSuchElementException,NoAlertPresentException</t>
+  </si>
+  <si>
+    <t>browser,platform</t>
+  </si>
+  <si>
+    <t>implicit,explicit,fluent
+explicit - 
+WebDriverWait wait = new WebDriverWait(driver, 10);
+WebElement element = wait.until(ExpectedConditions.elementToBeClickable(By.id("someid")));</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +918,27 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF38393A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF38393A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF38393A"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -999,16 +1276,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1016,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1029,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1037,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
@@ -1045,25 +1322,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="60">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>54</v>
+      <c r="B8" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1071,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1079,7 +1359,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1087,13 +1367,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
@@ -1112,89 +1395,67 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B19" s="3"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>59</v>
+      <c r="A21" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1222,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1234,26 +1495,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="120">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="210">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="195">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1314,153 +1575,153 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="44.25" customHeight="1">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="61.5" customHeight="1">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="36" customHeight="1">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="225">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="142.5" customHeight="1">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="135.75" customHeight="1">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1484,55 +1745,55 @@
   <sheetData>
     <row r="1" spans="1:2" ht="137.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="137.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="60">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1542,101 +1803,101 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="83.140625" customWidth="1"/>
+    <col min="3" max="3" width="89" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="4" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="4" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="4" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -1645,23 +1906,23 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="4" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45">
@@ -1669,50 +1930,162 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="4" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="4" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
         <v>144</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="4">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="4">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="4">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="4">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="4">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1751,67 +2124,182 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="57" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="95" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="39.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="105">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
       <c r="B5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45">
-      <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45">
+      <c r="B9" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19.5" customHeight="1">
+      <c r="B16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="177.75" customHeight="1">
+      <c r="B17" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1"/>
+    <row r="19" spans="1:2" hidden="1"/>
+    <row r="20" spans="1:2" hidden="1">
+      <c r="A20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1">
+      <c r="B21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="285">
+      <c r="B22" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1831,35 +2319,35 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1883,65 +2371,65 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30">
       <c r="A1" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="B6" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="B7" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="B11" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="678" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="678" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium" sheetId="1" r:id="rId1"/>
     <sheet name="Java" sheetId="2" r:id="rId2"/>
     <sheet name="Appium" sheetId="3" r:id="rId3"/>
     <sheet name="Framework design" sheetId="4" r:id="rId4"/>
-    <sheet name="SQL" sheetId="5" r:id="rId5"/>
+    <sheet name="Jenkins" sheetId="5" r:id="rId5"/>
     <sheet name="Manual Testing" sheetId="6" r:id="rId6"/>
     <sheet name="TestNG" sheetId="7" r:id="rId7"/>
     <sheet name="Maven" sheetId="8" r:id="rId8"/>
     <sheet name="GIT" sheetId="9" r:id="rId9"/>
-    <sheet name="Jenkins" sheetId="10" r:id="rId10"/>
+    <sheet name="SQL" sheetId="10" r:id="rId10"/>
     <sheet name="Mobile app testing" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="220">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -406,11 +406,6 @@
     <t>Limitations of using Appium</t>
   </si>
   <si>
-    <t>Appium does not support testing of Android Version lower than 4.2
-Limited support for hybrid app testing. E.g., not possible to test the switching action of application from the web app to native and vice-versa
-No support to run Appium Inspector on Microsoft Windows</t>
-  </si>
-  <si>
     <t>UIAutomateviewer</t>
   </si>
   <si>
@@ -891,6 +886,128 @@
 explicit - 
 WebDriverWait wait = new WebDriverWait(driver, 10);
 WebElement element = wait.until(ExpectedConditions.elementToBeClickable(By.id("someid")));</t>
+  </si>
+  <si>
+    <t>Simulator and emulator</t>
+  </si>
+  <si>
+    <t>Simulator: It is an electronic network simulation equipment or a base station equipment for CDMA/CMA mobile phones. It helps in latching home networks without roaming services and can make Voice; Data calls, SMS,
+Emulator: It is a software to test mobile application without a live handset</t>
+  </si>
+  <si>
+    <t>A/B testing</t>
+  </si>
+  <si>
+    <t>A/B testing for ios includes three steps
+Configure a test: It prepares two versions of your iOS app (A&amp;B) and test metric
+Test: Tests two iOS versions above on devices simultaneously
+Analyze: It select and measure better version to release</t>
+  </si>
+  <si>
+    <t>Unique tests for mobile apps</t>
+  </si>
+  <si>
+    <t>1.Installation
+2.Application launching without having network
+3.Uninstallation of app
+4.Orientation of app if it supports
+5.Testing application performance on a different kind of devices and network scenarios
+6.Testing the application response how it is responding</t>
+  </si>
+  <si>
+    <t>Performance testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load testing </t>
+  </si>
+  <si>
+    <t>Stress testing</t>
+  </si>
+  <si>
+    <t>Load testing is meant to test the system by constantly and steadily increasing the load on the system till the time it reaches the threshold limit. Eg."N" no of Drivers starting the trip at same time</t>
+  </si>
+  <si>
+    <t>Testing the application for performance, Eg different n/w requirements,battery peorfirmance</t>
+  </si>
+  <si>
+    <t>max 500 cars added into the system and checking how it responds</t>
+  </si>
+  <si>
+    <t>Appium does not support testing of Android Version lower than 4.2
+Limited support for hybrid app testing. E.g., not possible to test the switching action of application from the web app to native and vice-versa
+No support for toast messages
+No support to run Appium Inspector on Microsoft Windows</t>
+  </si>
+  <si>
+    <t>Advantages</t>
+  </si>
+  <si>
+    <t>multi language support
+supports IOS,android
+supports native,web,hybrid apps</t>
+  </si>
+  <si>
+    <t>Installations</t>
+  </si>
+  <si>
+    <t>What is Jenkins?</t>
+  </si>
+  <si>
+    <t>It’s a continous integration tool, where it builds,tests the code wheneever the dev checks in his code to the repository. It reveals integration issues
+User --&gt;local --&gt;central --&gt; CI--&gt; results</t>
+  </si>
+  <si>
+    <t>1. download war file from web</t>
+  </si>
+  <si>
+    <t>2. Install jenkins for windows</t>
+  </si>
+  <si>
+    <t>3. Type localhost:8080</t>
+  </si>
+  <si>
+    <t>4. In "Manage Jenkins" set up all the path like JDK,GIT path etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Create "new free style project" </t>
+  </si>
+  <si>
+    <t>6. Give GIT https path</t>
+  </si>
+  <si>
+    <t>7. Check Poll SCM - if there is any source code changes then only build triggers</t>
+  </si>
+  <si>
+    <t>8. Write * * * * * for jenkins to build and run everytime when there is code checkin</t>
+  </si>
+  <si>
+    <t>9. Click on save and apply</t>
+  </si>
+  <si>
+    <t>10. Check codes into Git - Jenkins start building the project and tests the regression test case</t>
+  </si>
+  <si>
+    <t>11. In o/p console it shows the results</t>
+  </si>
+  <si>
+    <t>12 In project--&gt; dashboard ---&gt;shows weather report if build is success or failure(bright sunny for success,cloudy for failure)</t>
+  </si>
+  <si>
+    <t>1)java setup 1.7+
+2).net framework
+3)mobile settings - developer options
+4)adk bundle download from android
+5)setup environment variables - raman and type as "adb devices" in cmd prompt
+6)appium server download(it has node.js in it)
+7)ADT plugin setup in eclipse and download all required info
+8)Maven set up and adding dependencies for created maven project
+dependencies - junit,testng,selenium,appium,gson
+or create normal project and add jars as mentioned below
+9)appium jar
+10)webdriver jar
+11)gson jar
+12)APK install in folder and set the path
+13)C:\Users\admin\android-sdks\tools - UIautomater</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1396,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1301,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="90">
+    <row r="3" spans="1:2" ht="75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1330,7 +1447,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1343,7 +1460,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1375,7 +1492,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1406,7 +1523,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
@@ -1419,7 +1536,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="3"/>
     </row>
@@ -1471,7 +1588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -1483,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1495,45 +1614,75 @@
   <sheetData>
     <row r="1" spans="1:2" ht="120">
       <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="195">
       <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="3"/>
+    </row>
+    <row r="4" spans="1:2" ht="84.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="90">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="105">
+      <c r="A6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="3"/>
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="3"/>
@@ -1731,10 +1880,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1753,31 +1902,31 @@
     </row>
     <row r="2" spans="1:2" ht="137.25" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="68.25" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="75">
+      <c r="A4" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="60">
-      <c r="A5" t="s">
-        <v>85</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>110</v>
@@ -1785,15 +1934,31 @@
     </row>
     <row r="6" spans="1:2" ht="60">
       <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>90</v>
+    </row>
+    <row r="8" spans="1:2" ht="225">
+      <c r="A8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1820,84 +1985,84 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -1906,23 +2071,23 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
         <v>127</v>
-      </c>
-      <c r="C13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45">
@@ -1930,50 +2095,50 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -1981,39 +2146,39 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -2021,39 +2186,39 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -2061,7 +2226,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -2069,7 +2234,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -2077,7 +2242,7 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -2085,7 +2250,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2098,12 +2263,90 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="49.28515625" customWidth="1"/>
+    <col min="2" max="2" width="85.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="45">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="B13" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2126,8 +2369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2144,7 +2387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105">
+    <row r="2" spans="1:2" ht="90">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -2154,147 +2397,147 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
         <v>154</v>
-      </c>
-      <c r="B3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
         <v>157</v>
-      </c>
-      <c r="B5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
       <c r="B9" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="19.5" customHeight="1">
       <c r="B16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="177.75" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:2" hidden="1"/>
     <row r="19" spans="1:2" hidden="1"/>
     <row r="20" spans="1:2" hidden="1">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:2" hidden="1">
       <c r="B21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="285">
       <c r="B22" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" t="s">
         <v>163</v>
-      </c>
-      <c r="B27" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2371,65 +2614,65 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30">
       <c r="A1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="B6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="B11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="678" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="678" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="GIT" sheetId="9" r:id="rId9"/>
     <sheet name="SQL" sheetId="10" r:id="rId10"/>
     <sheet name="Mobile app testing" sheetId="11" r:id="rId11"/>
+    <sheet name="Agile Process" sheetId="12" r:id="rId12"/>
+    <sheet name="basic linux" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="259">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -1009,12 +1011,137 @@
 12)APK install in folder and set the path
 13)C:\Users\admin\android-sdks\tools - UIautomater</t>
   </si>
+  <si>
+    <t>12. git pull master must be done before pushing the codes</t>
+  </si>
+  <si>
+    <t>Project Owner</t>
+  </si>
+  <si>
+    <t>who has the responsibility of managing product backlog. Works with end users and customers and provide proper requirement to the team to build the proper product.</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>who works with scrum team to make sure each sprint gets complete on time. Scrum master ensure proper work flow to the team.</t>
+  </si>
+  <si>
+    <t>Scrum Team</t>
+  </si>
+  <si>
+    <t>Each member in the team should be self-organized, dedicated and responsible for high quality of the work.</t>
+  </si>
+  <si>
+    <t>Product backlog is maintained by the project owner which contains every feature and requirement of the product.</t>
+  </si>
+  <si>
+    <t>Product backlog</t>
+  </si>
+  <si>
+    <t>Sprint backlog can be treated as subset of product backlog which contains features and requirements related to that particular sprint only.</t>
+  </si>
+  <si>
+    <t>Sprint backlog</t>
+  </si>
+  <si>
+    <t>Modification of the code without changing its functionality to improve the performance is called re-factoring.</t>
+  </si>
+  <si>
+    <t>re-factoring</t>
+  </si>
+  <si>
+    <t>:User Stories defines the actual business requirement. Generally created by Business owner.</t>
+  </si>
+  <si>
+    <t>:User Stories</t>
+  </si>
+  <si>
+    <t>To accomplish the business requirements development team create tasks</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>A group of related user stories is called an Epic</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>User Story: which has the actual business requirement.
+To Do: Tasks that can be worked on.
+In Progress: Tasks in progress.
+To Verify: Tasks pending for verification or testing
+Done: Completed tasks.</t>
+  </si>
+  <si>
+    <t>Task board</t>
+  </si>
+  <si>
+    <t>It can be defined as pre step to the first sprint. Activities like setting development environment, preparing backlog etc needs to be done before starting of the first sprint and can be treated as Sprint zero.</t>
+  </si>
+  <si>
+    <t>Zero sprint</t>
+  </si>
+  <si>
+    <t>There may be some technical issues or design problem in the project which needs to be resolved first. To provide the solution of these problem “Spikes” are created. Spikes are of two types- Functional and Technical.</t>
+  </si>
+  <si>
+    <t>Spike</t>
+  </si>
+  <si>
+    <t>Agile tester</t>
+  </si>
+  <si>
+    <t>Agile tester should be able to understand the requirements quickly.
+Agile tester should know Agile concepts and principals.
+As requirements keep changing, he should understand the risk involve in it.
+Agile tester should be able to prioritize the work based on the requirements.
+Communication is must for a Agile tester as it requires a lot of communication with developers and business associates.</t>
+  </si>
+  <si>
+    <t>TDD</t>
+  </si>
+  <si>
+    <t>Test driven development or TDD is also known as test-driven design. In this method, developer first writes an automated test case which describes new function or improvement and then creates small codes to pass that test, and later re-factors the new code to meet the acceptable standards.</t>
+  </si>
+  <si>
+    <t>Burn-up charts represent how much work has been completed in any project whereas Burn-down chart represents the remaining work in a project.</t>
+  </si>
+  <si>
+    <t>Burn up/down</t>
+  </si>
+  <si>
+    <t>Sprint Planning Meeting</t>
+  </si>
+  <si>
+    <t>The output of the meeting is a sprint backlog</t>
+  </si>
+  <si>
+    <t>Daily Stand-up Meeting</t>
+  </si>
+  <si>
+    <t>Release Planning Meeting</t>
+  </si>
+  <si>
+    <t>Sprint Review (Demo) Meeting</t>
+  </si>
+  <si>
+    <t>Sprint Retrospective Meeting</t>
+  </si>
+  <si>
+    <t>Velocity is a metric that is calculated by addition of all efforts estimates related with user stories completed in an iteration. It figures out how much work Agile can complete in a sprint and how much time will it need to finish a project.</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,6 +1185,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1083,7 +1216,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
@@ -1097,6 +1230,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1708,6 +1844,197 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="45">
+      <c r="A1" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45">
+      <c r="A2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45">
+      <c r="A5" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="39">
+      <c r="A6" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="75">
+      <c r="A10" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="60">
+      <c r="A11" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60">
+      <c r="A12" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="135">
+      <c r="A13" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="75">
+      <c r="A14" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60">
+      <c r="A16" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B23"/>
@@ -1882,7 +2209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2369,7 +2696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2600,10 +2927,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2675,6 +3002,11 @@
         <v>102</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="678" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="678" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="284">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -1012,9 +1012,6 @@
 13)C:\Users\admin\android-sdks\tools - UIautomater</t>
   </si>
   <si>
-    <t>12. git pull master must be done before pushing the codes</t>
-  </si>
-  <si>
     <t>Project Owner</t>
   </si>
   <si>
@@ -1135,6 +1132,113 @@
   </si>
   <si>
     <t>Velocity</t>
+  </si>
+  <si>
+    <t>12. git pull master / origin must be done before pushing the codes</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>1. SELECT column_name,column_name
+FROM table_name;
+2. SELECT * FROM table_name;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT column_name,column_name
+FROM table_name;</t>
+  </si>
+  <si>
+    <t>Distinct</t>
+  </si>
+  <si>
+    <t>Where</t>
+  </si>
+  <si>
+    <t>SELECT column_name,column_name
+FROM table_name
+WHERE column_name operator value; OR 
+SELECT * FROM Customers
+WHERE CustomerID=1;</t>
+  </si>
+  <si>
+    <t>AND /OR</t>
+  </si>
+  <si>
+    <t>1. SELECT * FROM Customers
+WHERE Country='Germany'
+AND City='Berlin';
+2. SELECT * FROM Customers
+WHERE Country='Germany'
+AND (City='Berlin' OR City='München');</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Customers
+ORDER BY Country DESC;</t>
+  </si>
+  <si>
+    <t>OrderBy</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>INSERT INTO table_name (column1,column2,column3,...)
+VALUES (value1,value2,value3,...);</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>UPDATE Customers
+SET ContactName='Alfred Schmidt', City='Hamburg'
+WHERE CustomerName='Alfreds Futterkiste';</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>DELETE FROM table_name
+WHERE some_column=some_value;</t>
+  </si>
+  <si>
+    <t>Inner Join - Returns all rows when there is at least one match in BOTH tables</t>
+  </si>
+  <si>
+    <t>SELECT Orders.OrderID, Customers.CustomerName, Orders.OrderDate
+FROM Orders
+INNER JOIN Customers
+ON Orders.CustomerID=Customers.CustomerID;</t>
+  </si>
+  <si>
+    <t>Left join - Return all rows from the left table, and the matched rows from the right table</t>
+  </si>
+  <si>
+    <t>SELECT Customers.CustomerName, Orders.OrderID
+FROM Customers
+LEFT JOIN Orders
+ON Customers.CustomerID=Orders.CustomerID;</t>
+  </si>
+  <si>
+    <t>Right Join - Return all rows from the right table, and the matched rows from the left table</t>
+  </si>
+  <si>
+    <t>SELECT Orders.OrderID, Employees.FirstName
+FROM Orders
+RIGHT JOIN Employees
+ON Orders.EmployeeID=Employees.EmployeeID;</t>
+  </si>
+  <si>
+    <t>Full Join - Return all rows when there is a match in ONE of the tables</t>
+  </si>
+  <si>
+    <t>SELECT Customers.CustomerName, Orders.OrderID
+FROM Customers
+FULL OUTER JOIN Orders
+ON Customers.CustomerID=Orders.CustomerID</t>
+  </si>
+  <si>
+    <t>http://www.mediacollege.com/linux/command/linux-command.html</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1320,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
@@ -1228,12 +1332,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1722,14 +1827,116 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="61.5" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60">
+      <c r="A2" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="79.5" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="95.25" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30">
+      <c r="A6" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45">
+      <c r="A7" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60">
+      <c r="A9" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="75">
+      <c r="A10" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="75">
+      <c r="A11" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60">
+      <c r="A12" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1860,159 +2067,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45">
       <c r="A2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
       <c r="A4" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39">
       <c r="A6" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="6" t="s">
         <v>231</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
       <c r="A10" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60">
       <c r="A11" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
       <c r="A12" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="135">
       <c r="A13" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
       <c r="A16" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
       <c r="A17" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2025,12 +2232,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="85.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2320,7 +2539,7 @@
       <c r="C1" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2331,7 +2550,7 @@
       <c r="C2" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="4" t="s">
@@ -2340,7 +2559,7 @@
       <c r="C3" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="4" t="s">
@@ -2349,7 +2568,7 @@
       <c r="C4" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="4" t="s">
@@ -2358,7 +2577,7 @@
       <c r="C5" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="4" t="s">
@@ -2367,7 +2586,7 @@
       <c r="C6" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="4" t="s">
@@ -2379,7 +2598,7 @@
       <c r="D7" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="4" t="s">
@@ -2391,7 +2610,7 @@
       <c r="D8" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="4">
@@ -2877,8 +3096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2930,7 +3149,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3004,7 +3223,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="3" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="678" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="678" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,15 @@
     <sheet name="Mobile app testing" sheetId="11" r:id="rId11"/>
     <sheet name="Agile Process" sheetId="12" r:id="rId12"/>
     <sheet name="basic linux" sheetId="13" r:id="rId13"/>
+    <sheet name="Sel Pro" sheetId="14" r:id="rId14"/>
+    <sheet name="Java progs" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="316">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -1239,6 +1241,255 @@
   </si>
   <si>
     <t>http://www.mediacollege.com/linux/command/linux-command.html</t>
+  </si>
+  <si>
+    <t>All links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import org.openqa.selenium.firefox.FirefoxDriver;
+public class FindAllLinks {
+ public static void main(String[] args) {
+  WebDriver driver = new FirefoxDriver();
+  driver.get("http://toolsqa.com/");
+  java.util.List&lt;WebElement&gt; links = driver.findElements(By.tagName("a"));
+  System.out.println(links.size());
+  for (int i = 1; i&lt;=links.size(); i=i+1)
+  {
+   System.out.println(links.get(i).getText());
+  }
+ }
+ </t>
+  </si>
+  <si>
+    <t>used to prevent inheritance</t>
+  </si>
+  <si>
+    <t>Java progs</t>
+  </si>
+  <si>
+    <t>Fiboncci</t>
+  </si>
+  <si>
+    <t>Prime</t>
+  </si>
+  <si>
+    <t>even or odd</t>
+  </si>
+  <si>
+    <t>Palindrome</t>
+  </si>
+  <si>
+    <t>Factorial</t>
+  </si>
+  <si>
+    <t>Reverse of string</t>
+  </si>
+  <si>
+    <t>Using collections</t>
+  </si>
+  <si>
+    <t>strings example</t>
+  </si>
+  <si>
+    <t>Using iterators</t>
+  </si>
+  <si>
+    <t>arrays example</t>
+  </si>
+  <si>
+    <t>Sum of n numbers</t>
+  </si>
+  <si>
+    <t>Palindrome with string and number</t>
+  </si>
+  <si>
+    <t>Find largest and smallest number in array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package javaaa;
+import java.util.Scanner;
+public class factorial {
+ public static void main(String[] args) {
+  int i,fact=1;  
+  Scanner in = new Scanner(System.in);
+  int number = in.nextInt();//It is the number to calculate factorial    
+    for(i=1;i&lt;=number;i++){    
+        fact=fact*i;    
+    }    
+    System.out.println("Factorial of "+number+" is: "+fact);    
+ }
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package javaaa;
+public class Fibonacci {
+ public static void main(String[] args) {
+  int n1=0;int n2 = 1,i,n3,count=10;
+  System.out.println(""+n1);
+  System.out.println(""+n2);
+  for(i=2;i&lt;count;i++)
+  {
+   n3 = n1+n2;
+   System.out.println(""+n3);
+   n1=n2;
+   n2=n3;
+  } }}
+</t>
+  </si>
+  <si>
+    <t>Fibonacci</t>
+  </si>
+  <si>
+    <t>Large n Small</t>
+  </si>
+  <si>
+    <t>package javaaa;
+public class LargeNSmall {
+ public static void main(String[] args) {
+    //array of 10 numbers
+        int numbers[] = new int[]{32,43,53,54,32,65,20,11,43,23};
+        //assign first element of an array to largest and smallest
+        int smallest = numbers[0];
+        int largetst = numbers[0];     
+        for(int i=1; i&lt; numbers.length; i++)
+        {
+                if(numbers[i] &gt; largetst)
+                        largetst = numbers[i];
+                else if (numbers[i] &lt; smallest)
+                        smallest = numbers[i];   }
+        System.out.println("Largest Number is : " + largetst);
+        System.out.println("Smallest Number is : " + smallest);
+ }
+}</t>
+  </si>
+  <si>
+    <t>Odd or Even</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package javaaa;
+import java.util.Scanner;
+public class OddOREven {
+ public static void main(String[] args) {
+  int n;
+  Scanner in = new Scanner(System.in);
+  n = in.nextInt();
+  if(n % 2 == 0)
+  {
+   System.out.println("even");
+  }  else
+  {
+   System.out.println("Odd");
+  }
+ }
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package javaaa;
+import java.util.Scanner;
+public class palindrome {
+ public static void main(String[] args) {
+  Scanner in = new Scanner(System.in);
+  int n = in.nextInt();
+  int sum=0,r,temp;
+  temp = n;
+  while(n&gt;0)
+  {
+   r = n%10;
+   sum = (sum * 10) + r;
+   n=n/10;
+  }
+  if(temp == sum)
+  {
+   System.out.println("palin");
+  }
+  else
+  {
+   System.out.println("non-palin");
+  }
+ }
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package javaaa;
+import java.util.Scanner;
+public class prime {
+ public boolean prime(int number)
+ {
+  for(int i = 2; i&lt;=number/2;i++){
+   if (number % i == 0){
+    return false;
+   }
+  }
+  return true;
+ }
+ public static void main(String[] args) {
+  {
+   prime nik = new prime();
+   Scanner in = new Scanner(System.in);
+   int n = in.nextInt();
+   System.out.println(nik.prime(n));
+  }
+ }
+}
+</t>
+  </si>
+  <si>
+    <t>prime</t>
+  </si>
+  <si>
+    <t>Reverse a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package javaaa;
+import java.util.Scanner;
+public class reversestring {
+ public static void main(String[] args) {
+  // TODO Auto-generated method stub
+  String original, reverse = "";
+  Scanner in = new Scanner(System.in);
+  System.out.println("Enter a string to reverse");
+  original = in.nextLine();
+  int length = original.length();
+  for ( int i = length - 1 ; i &gt;= 0 ; i-- )
+   reverse = reverse + original.charAt(i);
+  System.out.println("Reverse of entered string is: "+reverse);
+ }
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package javaaa;
+public class SumOfNNumbers {
+ public static void main(String args[])
+ {
+  int sum = 0;
+  int n=12;
+  for(int i = 1;i &lt;= n;i++)
+  {
+   sum = sum + i;
+  }
+  System.out.println("The Sum Of "+n+" Numbers are:" + sum);
+ }
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package javaaa;
+public class reversestringbuffer {
+ public static void main(String[] args){
+  String string="abcdef";
+  String reverse = new StringBuffer(string).reverse().toString();
+  System.out.println("\nString before reverse:"+string);
+  System.out.println("String after reverse:"+reverse);
+ }
+}
+</t>
+  </si>
+  <si>
+    <t>Reverse a string buffer class</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1571,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
@@ -1335,10 +1586,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1848,7 +2102,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60">
+    <row r="2" spans="1:2" ht="30">
       <c r="A2" s="3" t="s">
         <v>262</v>
       </c>
@@ -2242,7 +2496,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -2254,12 +2508,129 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="100.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="364.5" customHeight="1">
+      <c r="A1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="99.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="266.25" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="243.75" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="303.75" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="279" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="318.75" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="266.25" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="358.5" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="291" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="304.5" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2417,6 +2788,74 @@
     <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2539,7 +2978,7 @@
       <c r="C1" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2550,7 +2989,7 @@
       <c r="C2" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="4" t="s">
@@ -2559,7 +2998,7 @@
       <c r="C3" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="4" t="s">
@@ -2568,7 +3007,7 @@
       <c r="C4" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="4" t="s">
@@ -2577,7 +3016,7 @@
       <c r="C5" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="4" t="s">
@@ -2586,7 +3025,7 @@
       <c r="C6" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="4" t="s">
@@ -2598,7 +3037,7 @@
       <c r="D7" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="4" t="s">
@@ -2610,7 +3049,7 @@
       <c r="D8" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="4">
@@ -3096,7 +3535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="678" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="678"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="321">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -1490,6 +1490,21 @@
   </si>
   <si>
     <t>Reverse a string buffer class</t>
+  </si>
+  <si>
+    <t>How to show all links in webapage</t>
+  </si>
+  <si>
+    <t>Must check URL's</t>
+  </si>
+  <si>
+    <t>http://www.softwaretestinghelp.com/selenium-interview-questions-answers/</t>
+  </si>
+  <si>
+    <t>http://toolsqa.com/selenium-webdriver/selenium-interview-questions-part-1/</t>
+  </si>
+  <si>
+    <t>http://toolsqa.com/selenium-webdriver/selenium-interview-questions-part-2/</t>
   </si>
 </sst>
 </file>
@@ -1588,10 +1603,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1888,10 +1903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2070,12 +2085,38 @@
         <v>22</v>
       </c>
     </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>317</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B32" r:id="rId2"/>
+    <hyperlink ref="B33" r:id="rId3"/>
+    <hyperlink ref="B34" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2538,13 +2579,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="99.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2565,7 +2606,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="303.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>304</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2573,7 +2614,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="279" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>306</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2581,7 +2622,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="318.75" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>291</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2589,7 +2630,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="266.25" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>310</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2597,7 +2638,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="358.5" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>311</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2605,7 +2646,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="291" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>298</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2613,7 +2654,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="304.5" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>315</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2978,7 +3019,7 @@
       <c r="C1" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2989,7 +3030,7 @@
       <c r="C2" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="4" t="s">
@@ -2998,7 +3039,7 @@
       <c r="C3" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="4" t="s">
@@ -3007,7 +3048,7 @@
       <c r="C4" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="4" t="s">
@@ -3016,7 +3057,7 @@
       <c r="C5" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="4" t="s">
@@ -3025,7 +3066,7 @@
       <c r="C6" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="4" t="s">
@@ -3037,7 +3078,7 @@
       <c r="D7" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="4" t="s">
@@ -3049,7 +3090,7 @@
       <c r="D8" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="4">

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="678"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="678" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="323">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -1505,6 +1505,35 @@
   </si>
   <si>
     <t>http://toolsqa.com/selenium-webdriver/selenium-interview-questions-part-2/</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>public class Arrays {
+ public static void main(String[] args) {
+  double[] myList = {1.9, 2.9, 3.4, 3.5};
+// Print all the array elements
+  for (int i = 0; i &lt; myList.length; i++)
+  {
+   System.out.println(+ myList[i] );
+  }
+  // Summing all elements
+  double total = 0;
+  for (int i = 0; i &lt; myList.length; i++) 
+  {
+   total += myList[i];
+  }
+  System.out.println("Total is " + total);
+  // Finding the largest element
+  double max = myList[0];
+  for (int i = 1; i &lt; myList.length; i++) 
+  {
+   if (myList[i] &gt; max) max = myList[i];
+  }
+  System.out.println("Max is " + max);
+ }
+}</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +1934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+    <sheetView topLeftCell="B18" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -2577,10 +2606,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2661,6 +2690,15 @@
         <v>314</v>
       </c>
     </row>
+    <row r="10" spans="1:2" ht="376.5" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="373.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="678" firstSheet="5" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="828" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,16 @@
     <sheet name="SQL" sheetId="10" r:id="rId10"/>
     <sheet name="Mobile app testing" sheetId="11" r:id="rId11"/>
     <sheet name="Agile Process" sheetId="12" r:id="rId12"/>
-    <sheet name="basic linux" sheetId="13" r:id="rId13"/>
-    <sheet name="Sel Pro" sheetId="14" r:id="rId14"/>
-    <sheet name="Java progs" sheetId="15" r:id="rId15"/>
+    <sheet name="Sel Progs" sheetId="14" r:id="rId13"/>
+    <sheet name="Java progs" sheetId="15" r:id="rId14"/>
+    <sheet name="basic linux" sheetId="13" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="372">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -1534,6 +1534,153 @@
   System.out.println("Max is " + max);
  }
 }</t>
+  </si>
+  <si>
+    <t>leap year or not</t>
+  </si>
+  <si>
+    <t>pyramid of stars</t>
+  </si>
+  <si>
+    <t>swap 2 numbers</t>
+  </si>
+  <si>
+    <t>triangle shape</t>
+  </si>
+  <si>
+    <t>diamond shape</t>
+  </si>
+  <si>
+    <t>union of arrays</t>
+  </si>
+  <si>
+    <t>intersection of arrays</t>
+  </si>
+  <si>
+    <t>String buffer methods</t>
+  </si>
+  <si>
+    <t>String methods</t>
+  </si>
+  <si>
+    <t>String reverse</t>
+  </si>
+  <si>
+    <t>floyds triangle</t>
+  </si>
+  <si>
+    <t>compare string</t>
+  </si>
+  <si>
+    <t>substring of a string</t>
+  </si>
+  <si>
+    <t>get url</t>
+  </si>
+  <si>
+    <t>get title</t>
+  </si>
+  <si>
+    <t>get current url</t>
+  </si>
+  <si>
+    <t>get text</t>
+  </si>
+  <si>
+    <t>refresh</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>findelement</t>
+  </si>
+  <si>
+    <t>findelements</t>
+  </si>
+  <si>
+    <t>all webelements</t>
+  </si>
+  <si>
+    <t>get window handle</t>
+  </si>
+  <si>
+    <t>get window handles</t>
+  </si>
+  <si>
+    <t>switchtowindow</t>
+  </si>
+  <si>
+    <t>implicit wait</t>
+  </si>
+  <si>
+    <t>expected conditions</t>
+  </si>
+  <si>
+    <t>draggable</t>
+  </si>
+  <si>
+    <t>droppable</t>
+  </si>
+  <si>
+    <t>resizeable</t>
+  </si>
+  <si>
+    <t>selectable</t>
+  </si>
+  <si>
+    <t>sortable</t>
+  </si>
+  <si>
+    <t>autocomplete</t>
+  </si>
+  <si>
+    <t>accordian</t>
+  </si>
+  <si>
+    <t>datepicker</t>
+  </si>
+  <si>
+    <t>slider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu </t>
+  </si>
+  <si>
+    <t>tabs</t>
+  </si>
+  <si>
+    <t>tooltip</t>
+  </si>
+  <si>
+    <t>windows</t>
+  </si>
+  <si>
+    <t>submit button clicked</t>
+  </si>
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t>3 types</t>
+  </si>
+  <si>
+    <t>alert box</t>
+  </si>
+  <si>
+    <t>reading a table and fetching value from it</t>
+  </si>
+  <si>
+    <t>Actions class</t>
+  </si>
+  <si>
+    <t>iframes</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1762,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
@@ -1637,6 +1784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1934,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2554,6 +2702,374 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" width="100.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="206.25" customHeight="1">
+      <c r="A1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>366</v>
+      </c>
+      <c r="B32" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="99.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="266.25" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="243.75" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="303.75" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="279" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="318.75" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="266.25" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="358.5" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="291" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="304.5" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="376.5" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="59.25" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2574,132 +3090,6 @@
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="100.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="364.5" customHeight="1">
-      <c r="A1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="31.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="99.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="266.25" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="243.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="303.75" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="279" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="318.75" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="266.25" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="358.5" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="291" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="304.5" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="376.5" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="373.5" customHeight="1"/>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="828" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="828" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <sheet name="Java progs" sheetId="15" r:id="rId14"/>
     <sheet name="basic linux" sheetId="13" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="375">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -296,16 +296,6 @@
     <t>Installation and execution details</t>
   </si>
   <si>
-    <t>By changing number of arguments
-By changing the data type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java constructor is invoked at the time of object creation
-Constructor name must be same as its class name
-Constructor must have no explicit return type
-</t>
-  </si>
-  <si>
     <t>static</t>
   </si>
   <si>
@@ -339,9 +329,6 @@
   <si>
     <t>Hiding certain details and showing only required ones.
 Abstract class(extends i-i c-c),interface(implements i-c).</t>
-  </si>
-  <si>
-    <t>is a process of combining code and data together into a single unit</t>
   </si>
   <si>
     <t>final</t>
@@ -1681,6 +1668,42 @@
   </si>
   <si>
     <t>iframes</t>
+  </si>
+  <si>
+    <t>Java StringBuffer class is used to created mutable (modifiable) string. The StringBuffer class in java is same as String class except it is mutable i.e. it can be changed.StringBuffer is synchronized i.e. thread safe. It means two threads can't call the methods of StringBuffer simultaneously.Stringbuilder is non-synchronized</t>
+  </si>
+  <si>
+    <t>is a process of combining code and data together into a single unit. We use setter and getter methods. All data members of class be made private.</t>
+  </si>
+  <si>
+    <t>in encapsulation program example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">super is used to refer immediate parent class instance variable.
+super() is used to invoke immediate parent class constructor.
+super is used to invoke immediate parent class method.
+class Vehicle{  
+  int speed=50;  
+}  
+class Bike4 extends Vehicle{  
+  int speed=100;  
+  void display(){  
+   System.out.println(super.speed);//will print speed of Vehicle now  
+  }  
+  public static void main(String args[]){  
+   Bike4 b=new Bike4();  
+   b.display();  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java constructor is invoked at the time of object creation.It is special type of method
+Constructor name must be same as its class name
+Constructor must have no explicit return type
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a class have multiple methods by same name but different parameters
+By changing number of arguments
+By changing the data type</t>
   </si>
 </sst>
 </file>
@@ -1781,10 +1804,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2134,7 +2157,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2147,7 +2170,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2179,7 +2202,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2210,7 +2233,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
@@ -2223,7 +2246,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B19" s="3"/>
     </row>
@@ -2264,25 +2287,25 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2314,98 +2337,98 @@
   <sheetData>
     <row r="1" spans="1:2" ht="61.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30">
       <c r="A2" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="79.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="95.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="A6" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
       <c r="A10" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="75">
       <c r="A11" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
       <c r="A12" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2429,74 +2452,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="120">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="195">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="84.75" customHeight="1">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="105">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2540,158 +2563,158 @@
   <sheetData>
     <row r="1" spans="1:2" ht="45">
       <c r="A1" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45">
       <c r="A2" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
       <c r="A4" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39">
       <c r="A6" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
       <c r="A10" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60">
       <c r="A11" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
       <c r="A12" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="135">
       <c r="A13" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
       <c r="A16" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
       <c r="A17" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2704,7 +2727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -2716,186 +2739,186 @@
   <sheetData>
     <row r="1" spans="1:2" ht="206.25" customHeight="1">
       <c r="A1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B32" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -2919,148 +2942,148 @@
   <sheetData>
     <row r="1" spans="1:2" ht="266.25" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="243.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="303.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="279" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="318.75" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="266.25" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="358.5" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="291" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="304.5" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="376.5" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="59.25" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B11" s="9"/>
+        <v>320</v>
+      </c>
+      <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3083,7 +3106,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3098,8 +3121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3118,7 +3141,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="44.25" customHeight="1">
@@ -3126,7 +3149,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
@@ -3134,36 +3157,39 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>68</v>
+      <c r="B5" s="3" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="61.5" customHeight="1">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="36" customHeight="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="65.25" customHeight="1">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
@@ -3171,7 +3197,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="225">
@@ -3179,7 +3205,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="142.5" customHeight="1">
@@ -3187,12 +3213,15 @@
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="240">
       <c r="A12" t="s">
         <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3200,9 +3229,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="60">
       <c r="A14" t="s">
         <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3215,7 +3247,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3225,15 +3257,15 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="135.75" customHeight="1">
       <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
@@ -3241,7 +3273,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3256,75 +3288,75 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3348,71 +3380,71 @@
   <sheetData>
     <row r="1" spans="1:2" ht="137.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="137.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="68.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="75">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="225">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3439,109 +3471,109 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>121</v>
+        <v>109</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="8"/>
+        <v>113</v>
+      </c>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="E8" s="9"/>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="4">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45">
@@ -3549,50 +3581,50 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -3600,39 +3632,39 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -3640,39 +3672,39 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -3680,7 +3712,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -3688,7 +3720,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -3696,7 +3728,7 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -3704,7 +3736,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3731,73 +3763,73 @@
   <sheetData>
     <row r="1" spans="1:2" ht="45">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="B13" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3851,147 +3883,147 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
       <c r="B9" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="19.5" customHeight="1">
       <c r="B16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="177.75" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:2" hidden="1"/>
     <row r="19" spans="1:2" hidden="1"/>
     <row r="20" spans="1:2" hidden="1">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2" hidden="1">
       <c r="B21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="285">
       <c r="B22" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4019,32 +4051,32 @@
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4068,70 +4100,70 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30">
       <c r="A1" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="B11" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="376">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -1670,9 +1670,6 @@
     <t>iframes</t>
   </si>
   <si>
-    <t>Java StringBuffer class is used to created mutable (modifiable) string. The StringBuffer class in java is same as String class except it is mutable i.e. it can be changed.StringBuffer is synchronized i.e. thread safe. It means two threads can't call the methods of StringBuffer simultaneously.Stringbuilder is non-synchronized</t>
-  </si>
-  <si>
     <t>is a process of combining code and data together into a single unit. We use setter and getter methods. All data members of class be made private.</t>
   </si>
   <si>
@@ -1704,6 +1701,17 @@
     <t xml:space="preserve"> a class have multiple methods by same name but different parameters
 By changing number of arguments
 By changing the data type</t>
+  </si>
+  <si>
+    <t>toUpperCase() and toLowerCase() ,trim(),startsWith() and endsWith(),charAt(),length()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java StringBuffer class is used to created mutable (modifiable) string. The StringBuffer class in java is same as String class except it is mutable i.e. it can be changed.StringBuffer is synchronized i.e. thread safe. It means two threads can't call the methods of StringBuffer simultaneously.Stringbuilder is non-synchronized
+class A{  
+public static void main(String args[]){  
+StringBuffer sb=new StringBuffer("Hello ");  
+sb.append("Java");//now original string is changed  
+System.out.println(sb);//prints Hello Java  </t>
   </si>
 </sst>
 </file>
@@ -3121,8 +3129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3165,7 +3173,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3173,7 +3181,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="61.5" customHeight="1">
@@ -3181,7 +3189,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="65.25" customHeight="1">
@@ -3189,7 +3197,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
@@ -3221,7 +3229,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3229,17 +3237,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="60">
+    <row r="14" spans="1:2" ht="135">
       <c r="A14" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>43</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:2">

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="828" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="828" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium" sheetId="1" r:id="rId1"/>
@@ -2113,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2735,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3129,7 +3129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="828" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="828" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="383">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -1712,6 +1712,34 @@
 StringBuffer sb=new StringBuffer("Hello ");  
 sb.append("Java");//now original string is changed  
 System.out.println(sb);//prints Hello Java  </t>
+  </si>
+  <si>
+    <t>1. Copy paste the maven pom xml from the link</t>
+  </si>
+  <si>
+    <t>7. Executing TestNG test cases in maven - http://howtodoinjava.com/testng/how-to-execute-testng-tests-with-maven-build/</t>
+  </si>
+  <si>
+    <t>2. execute the pom.xml in cmd prompt</t>
+  </si>
+  <si>
+    <t>3. path of the project - and type  "mvn test"</t>
+  </si>
+  <si>
+    <t>Execute in cmd prompt</t>
+  </si>
+  <si>
+    <t>Execute from task scheduler</t>
+  </si>
+  <si>
+    <t>1. Create a batch file will commands - echo hi im here
+cd C:\Users\admin\workspace\FirstDemo
+mvn test
+pause
+echo im done
+2. Create a basic task in windows task scheduler
+3. Copy paste the batch file path and schedule a time
+4. Run the batch file for that time</t>
   </si>
 </sst>
 </file>
@@ -2735,7 +2763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -4045,19 +4073,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>56</v>
       </c>
@@ -4065,29 +4095,58 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30">
+    <row r="6" spans="1:4" ht="30">
       <c r="B6" s="3" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45">
+      <c r="B7" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="150">
+      <c r="C10" t="s">
+        <v>381</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="828" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="828"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="384">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -1740,6 +1740,9 @@
 2. Create a basic task in windows task scheduler
 3. Copy paste the batch file path and schedule a time
 4. Run the batch file for that time</t>
+  </si>
+  <si>
+    <t>print only odd fibonacci no</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1824,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
@@ -1837,9 +1840,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2141,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2964,15 +2964,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="99.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2993,7 +2993,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="303.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>301</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3001,7 +3001,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="279" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>303</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3009,7 +3009,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="318.75" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>288</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3017,7 +3017,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="266.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>307</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3025,7 +3025,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="358.5" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>308</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3033,7 +3033,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="291" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>295</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3041,7 +3041,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="304.5" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>312</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -3049,77 +3049,82 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="376.5" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>318</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A11" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="4" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +3523,7 @@
       <c r="C1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3529,7 +3534,7 @@
       <c r="C2" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="4" t="s">
@@ -3538,7 +3543,7 @@
       <c r="C3" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="4" t="s">
@@ -3547,7 +3552,7 @@
       <c r="C4" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="4" t="s">
@@ -3556,7 +3561,7 @@
       <c r="C5" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="4" t="s">
@@ -3565,7 +3570,7 @@
       <c r="C6" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="4" t="s">
@@ -3577,7 +3582,7 @@
       <c r="D7" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="4" t="s">
@@ -3589,7 +3594,7 @@
       <c r="D8" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="4">
@@ -4075,7 +4080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="828"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="913" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <sheet name="Java progs" sheetId="15" r:id="rId14"/>
     <sheet name="basic linux" sheetId="13" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="384">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -2141,7 +2141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -3498,10 +3498,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3509,7 +3509,7 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="89" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3727,7 +3727,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:4">
       <c r="B33" s="4" t="s">
         <v>123</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:4">
       <c r="B34" s="4" t="s">
         <v>125</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:4">
       <c r="B35" s="4" t="s">
         <v>126</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:4">
       <c r="B38" s="4">
         <v>6</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:4">
       <c r="B39" s="4">
         <v>7</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:4">
       <c r="B40" s="4">
         <v>8</v>
       </c>
@@ -3775,12 +3775,52 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:4">
       <c r="B41" s="4">
         <v>9</v>
       </c>
       <c r="C41" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="30">
+      <c r="B43" s="4">
+        <v>10</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s">
+        <v>380</v>
+      </c>
+      <c r="D45" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="D46" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="D47" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="150">
+      <c r="B49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" t="s">
+        <v>381</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4081,7 +4121,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4125,34 +4165,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45">
-      <c r="B7" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C7" t="s">
-        <v>380</v>
-      </c>
-      <c r="D7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="D8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="D9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="150">
-      <c r="C10" t="s">
-        <v>381</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>382</v>
-      </c>
+    <row r="7" spans="1:4">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="913" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="913" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="390">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -302,21 +302,6 @@
     <t>non-static</t>
   </si>
   <si>
-    <t xml:space="preserve">1. The static keyword in java is used for memory management mainly.
-2. A static method belongs to the class rather than object of a class.
-3. A static method can be invoked without the need for creating an instance of a class.
-4. static method can access static data member and can change the value of it.
-</t>
-  </si>
-  <si>
-    <t>this keyword can be used to refer current class instance variable.
-this() can be used to invoke current class constructor.
-this keyword can be used to invoke current class method (implicitly)
-this can be passed as an argument in the method call.
-this can be passed as argument in the constructor call.
-this keyword can also be used to return the current class instance.</t>
-  </si>
-  <si>
     <t>1. Subclass acquires properties from Parent class
 2. Used for code re-useablitiy.
 3. Used for method overiding</t>
@@ -1698,11 +1683,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> a class have multiple methods by same name but different parameters
-By changing number of arguments
-By changing the data type</t>
-  </si>
-  <si>
     <t>toUpperCase() and toLowerCase() ,trim(),startsWith() and endsWith(),charAt(),length()</t>
   </si>
   <si>
@@ -1743,6 +1723,63 @@
   </si>
   <si>
     <t>print only odd fibonacci no</t>
+  </si>
+  <si>
+    <t>Bubble sort</t>
+  </si>
+  <si>
+    <t>Selection sort</t>
+  </si>
+  <si>
+    <t>Java Basics</t>
+  </si>
+  <si>
+    <t>Java OOPS</t>
+  </si>
+  <si>
+    <t>Object contains states and behaviour,entity of class.
+Class defines variables,method,its collection of objects.</t>
+  </si>
+  <si>
+    <t>JVM,loops,conditon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If a class have multiple methods by same name but different parameters
+By changing number of arguments
+By changing the data type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this keyword can be used to refer current class instance variable.
+this() can be used to invoke current class constructor.
+this keyword can be used to invoke current class method (implicitly)
+class Student11{  
+    int id;  
+    String name;  
+    Student11(int id,String name){  
+    this.id = id;  
+    this.name = name;  
+    }  
+    void display(){System.out.println(id+" "+name);}  
+    public static void main(String args[]){  
+    Student11 s1 = new Student11(111,"Karan");  
+    Student11 s2 = new Student11(222,"Aryan");  
+    s1.display();  
+    s2.display();  
+}  
+}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The static keyword in java is used for memory management mainly.
+2. A static method can be invoked without the need for creating an instance of a class.
+class Languages {
+  public static void main(String[] args) {
+    display();
+  }
+  static void display() {
+    System.out.println("Java is my favorite programming language.");
+  }
+}
+</t>
   </si>
 </sst>
 </file>
@@ -2193,7 +2230,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2206,7 +2243,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2238,7 +2275,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2269,7 +2306,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
@@ -2282,7 +2319,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="3"/>
     </row>
@@ -2323,25 +2360,25 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2373,98 +2410,98 @@
   <sheetData>
     <row r="1" spans="1:2" ht="61.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30">
       <c r="A2" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="79.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="95.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="A6" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
       <c r="A10" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="75">
       <c r="A11" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
       <c r="A12" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2488,74 +2525,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="120">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="195">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="84.75" customHeight="1">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="105">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2599,158 +2636,158 @@
   <sheetData>
     <row r="1" spans="1:2" ht="45">
       <c r="A1" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45">
       <c r="A2" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
       <c r="A4" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39">
       <c r="A6" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
       <c r="A10" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60">
       <c r="A11" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
       <c r="A12" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="135">
       <c r="A13" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
       <c r="A16" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
       <c r="A17" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2775,186 +2812,186 @@
   <sheetData>
     <row r="1" spans="1:2" ht="206.25" customHeight="1">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" t="s">
         <v>341</v>
-      </c>
-      <c r="B10" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B32" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -2964,10 +3001,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2978,153 +3015,163 @@
   <sheetData>
     <row r="1" spans="1:2" ht="266.25" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="243.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="303.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="279" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="318.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="266.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="358.5" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="291" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="304.5" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="376.5" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3147,7 +3194,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3160,10 +3207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3174,233 +3221,249 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="45">
-      <c r="A2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="44.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="44.25" customHeight="1">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B7" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="61.5" customHeight="1">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="61.5" customHeight="1">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="65.25" customHeight="1">
-      <c r="A8" t="s">
+    <row r="10" spans="1:2" ht="65.25" customHeight="1">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45">
-      <c r="A9" t="s">
+      <c r="B10" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="225">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="142.5" customHeight="1">
-      <c r="A11" t="s">
-        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="240">
+    <row r="12" spans="1:2" ht="225">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="326.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="240">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="135">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
       <c r="B14" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="135">
       <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
+        <v>37</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="135.75" customHeight="1">
-      <c r="A19" t="s">
+    <row r="21" spans="1:2" ht="150.75" customHeight="1">
+      <c r="A21" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="90">
-      <c r="A20" t="s">
+      <c r="B21" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="90">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>42</v>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>284</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>297</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -3424,71 +3487,71 @@
   <sheetData>
     <row r="1" spans="1:2" ht="137.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="137.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="68.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="75">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="225">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3500,7 +3563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -3515,84 +3578,84 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
         <v>114</v>
-      </c>
-      <c r="D7" t="s">
-        <v>116</v>
       </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
         <v>115</v>
-      </c>
-      <c r="D8" t="s">
-        <v>117</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -3601,74 +3664,74 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30">
       <c r="B16" s="4">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -3676,39 +3739,39 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -3716,39 +3779,39 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -3756,7 +3819,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -3764,7 +3827,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -3772,7 +3835,7 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -3780,7 +3843,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="30">
@@ -3788,39 +3851,39 @@
         <v>10</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D45" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="D46" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="D47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="120">
+      <c r="B49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" t="s">
+        <v>378</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="150">
-      <c r="B49" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" t="s">
-        <v>381</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3847,73 +3910,73 @@
   <sheetData>
     <row r="1" spans="1:2" ht="45">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="B13" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3967,147 +4030,147 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
       <c r="B9" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="19.5" customHeight="1">
       <c r="B16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="177.75" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:2" hidden="1"/>
     <row r="19" spans="1:2" hidden="1"/>
     <row r="20" spans="1:2" hidden="1">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:2" hidden="1">
       <c r="B21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="285">
       <c r="B22" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4137,32 +4200,32 @@
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4192,70 +4255,70 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30">
       <c r="A1" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="B6" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -21,14 +21,14 @@
     <sheet name="Agile Process" sheetId="12" r:id="rId12"/>
     <sheet name="Sel Progs" sheetId="14" r:id="rId13"/>
     <sheet name="Java progs" sheetId="15" r:id="rId14"/>
-    <sheet name="basic linux" sheetId="13" r:id="rId15"/>
+    <sheet name="basic unix" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="398">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -1780,6 +1780,65 @@
   }
 }
 </t>
+  </si>
+  <si>
+    <t>finally is a block always associated with try catch to maintain cleanup code</t>
+  </si>
+  <si>
+    <t>Finally</t>
+  </si>
+  <si>
+    <t>finalize() is a method which is always invoked by garbage collector just before destroying an object to perform cleanup activities.</t>
+  </si>
+  <si>
+    <t>Finalize</t>
+  </si>
+  <si>
+    <t>$ ls      command is used for directory and file listing with there permission.
+$ ls -l   list files in current directory.
+$ ls -a  list hidden files.
+$ pwd -command is used for knowing user current working directory or you can say print working      directory.
+$ cd - similar to DOS cd .it is use to change directory.
+$ mkdir - use to create new directory.
+$ rmdir - use to remove directory.
+$ cat filename - command is use to display file contents without paging.
+$ cp source destination - command is use to copy file.
+$ mv oldname  newname - command is use to rename file .
+$ rm filename - command use to delete file.
+$ pico  filename - command use to create or modify file.
+$ More filename -List the contents of file pausing after each screen (press Space to continue listing).
+$ grep string file-Search file for occurrences of string.
+$ less filename - Display filename one screenful.A pager similar to (better than) more.
+$ pg filename - View filename one screenfull at atime (a pager).
+$ print file -Send file to the UNIX laser printer.
+$ man command - Display information about command.
+$ apropos keyword - List commands/programs that contain keyword in their description.
+$ du - List the number of Kbytes for each directory below current working directory.
+$ talk username - Interactively communicate with username; username has to be logged-in.
+$ finger username - Find the username for username.
+$ w - Display current activity on the system.
+$ who - Show users that are currently logged-in.
+$ tin -  A program to read a collection of newsgroups (new articles arrive daily).
+$ help [command] - If specified without command, a brief introduction is listed.If command is specified, help displays the man page for command.
+$ pine - Send email through the Internet
+$ quota –v - Display disk usage and disk quota. This command does not display your email quota.
+$ mydiskspace - Display uhunix disk usage only. This command does not display your email quota.
+$ write username - Writes files or text to username.
+$ !! - Repeats last command.
+$ kill  - Command use to terminate process.example: kill - 5555
+$ nice program name - Command use to run program  with lower priority.Recommended for running background processes.
+$ ps - Command use to list no of processes running in a system.
+$ top - show (continuously) what process(es) is running.</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>Inbuilt class
+Can store duplicate values</t>
+  </si>
+  <si>
+    <t>Set(interface-only show unique values),hashset(class),map(interface),hashmap,hashtable,list,arraylist(class),linkedlist(class)</t>
   </si>
 </sst>
 </file>
@@ -2179,7 +2238,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3181,20 +3240,25 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="85.85546875" customWidth="1"/>
+    <col min="1" max="1" width="137.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="409.5">
+      <c r="A3" s="3" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3207,10 +3271,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3387,82 +3451,109 @@
       <c r="A23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>395</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>391</v>
+      </c>
+      <c r="B27" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
       <c r="A28" t="s">
+        <v>393</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>295</v>
       </c>
     </row>

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="913" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="913"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="401">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Select class - 3 methods(constructor)</t>
-  </si>
-  <si>
-    <t>different kinds of wait</t>
   </si>
   <si>
     <t>alerts</t>
@@ -261,9 +258,6 @@
     <t>Finds 1st element in current web,Finds all web elements in webpage</t>
   </si>
   <si>
-    <t>Robot class</t>
-  </si>
-  <si>
     <t>webbased,windowbased</t>
   </si>
   <si>
@@ -1838,7 +1832,28 @@
 Can store duplicate values</t>
   </si>
   <si>
-    <t>Set(interface-only show unique values),hashset(class),map(interface),hashmap,hashtable,list,arraylist(class),linkedlist(class)</t>
+    <t>Set(interface-only show unique values),hashset(class),map(interface),hashmap(only unique),hashtable,list,arraylist(class),linkedlist(class)
+Hashtable&lt;Integer,String&gt; hm=new Hashtable&lt;Integer,String&gt;();  
+  hm.put(100,"Amit");  
+  hm.put(102,"Ravi");  
+  hm.put(101,"Vijay");  
+  hm.put(103,"Rahul"); S.O.P (hm.get(100));</t>
+  </si>
+  <si>
+    <t>different kinds of wait and difference</t>
+  </si>
+  <si>
+    <t>ScreenShot</t>
+  </si>
+  <si>
+    <t>EventFiringWebDriver</t>
+  </si>
+  <si>
+    <t>Robot classRobot robot = new Robot();  // Robot class throws AWT Exception 
+           robot.keyPress(KeyEvent.VK_DOWN);</t>
+  </si>
+  <si>
+    <t>.keyDown(variablename.Keys.SHIFT)</t>
   </si>
 </sst>
 </file>
@@ -2235,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2252,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2265,7 +2280,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2273,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
@@ -2281,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2289,163 +2304,174 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="60">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>396</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
+      <c r="B10" s="3" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>16</v>
+        <v>397</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>310</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="34" spans="1:2">
+      <c r="B34" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B32" s="6" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="6" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="6" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B32" r:id="rId2"/>
-    <hyperlink ref="B33" r:id="rId3"/>
-    <hyperlink ref="B34" r:id="rId4"/>
+    <hyperlink ref="B33" r:id="rId2"/>
+    <hyperlink ref="B34" r:id="rId3"/>
+    <hyperlink ref="B35" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -2469,98 +2495,98 @@
   <sheetData>
     <row r="1" spans="1:2" ht="61.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30">
       <c r="A2" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="79.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="95.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="A6" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
       <c r="A10" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="75">
       <c r="A11" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
       <c r="A12" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2584,74 +2610,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="120">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="195">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="84.75" customHeight="1">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="105">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2695,158 +2721,158 @@
   <sheetData>
     <row r="1" spans="1:2" ht="45">
       <c r="A1" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45">
       <c r="A2" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
       <c r="A4" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39">
       <c r="A6" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
       <c r="A10" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60">
       <c r="A11" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
       <c r="A12" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="135">
       <c r="A13" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
       <c r="A16" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
       <c r="A17" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2871,186 +2897,186 @@
   <sheetData>
     <row r="1" spans="1:2" ht="206.25" customHeight="1">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" t="s">
         <v>339</v>
-      </c>
-      <c r="B10" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B32" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3063,7 +3089,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3074,163 +3100,163 @@
   <sheetData>
     <row r="1" spans="1:2" ht="266.25" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="243.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="303.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="279" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="318.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="266.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="358.5" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="291" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="304.5" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="376.5" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -3253,12 +3279,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="409.5">
       <c r="A3" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -3273,8 +3299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3285,276 +3311,276 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="44.25" customHeight="1">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="61.5" customHeight="1">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="65.25" customHeight="1">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="225">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="326.25" customHeight="1">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="240">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="135">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="150.75" customHeight="1">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="90">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="105">
+      <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>397</v>
+      <c r="B23" s="3" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3578,71 +3604,71 @@
   <sheetData>
     <row r="1" spans="1:2" ht="137.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="137.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="68.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="75">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="225">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3669,84 +3695,84 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
         <v>112</v>
-      </c>
-      <c r="D7" t="s">
-        <v>114</v>
       </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
         <v>113</v>
-      </c>
-      <c r="D8" t="s">
-        <v>115</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -3755,23 +3781,23 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30">
@@ -3779,50 +3805,50 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -3830,39 +3856,39 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -3870,39 +3896,39 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -3910,7 +3936,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -3918,7 +3944,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -3926,7 +3952,7 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -3934,7 +3960,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="30">
@@ -3942,39 +3968,39 @@
         <v>10</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D45" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="D46" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="D47" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="120">
       <c r="B49" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C49" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -4001,73 +4027,73 @@
   <sheetData>
     <row r="1" spans="1:2" ht="45">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="B13" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4105,163 +4131,163 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="90">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
       <c r="B9" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="19.5" customHeight="1">
       <c r="B16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="177.75" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:2" hidden="1"/>
     <row r="19" spans="1:2" hidden="1"/>
     <row r="20" spans="1:2" hidden="1">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:2" hidden="1">
       <c r="B21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="285">
       <c r="B22" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4288,35 +4314,35 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4346,70 +4372,70 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30">
       <c r="A1" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="B7" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/SelJavaAppium.xlsx
+++ b/SelJavaAppium.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="913"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="885"/>
   </bookViews>
   <sheets>
     <sheet name="Selenium" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="405">
   <si>
     <t>Difference between RC and Webdriver</t>
   </si>
@@ -1854,6 +1854,18 @@
   </si>
   <si>
     <t>.keyDown(variablename.Keys.SHIFT)</t>
+  </si>
+  <si>
+    <t>Log4J</t>
+  </si>
+  <si>
+    <t>For logging</t>
+  </si>
+  <si>
+    <t>POI api</t>
+  </si>
+  <si>
+    <t>For Excel reading</t>
   </si>
 </sst>
 </file>
@@ -2252,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3592,8 +3604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3678,10 +3690,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4001,6 +4013,28 @@
       </c>
       <c r="D49" s="3" t="s">
         <v>377</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="4">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>401</v>
+      </c>
+      <c r="D51" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="4">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>403</v>
+      </c>
+      <c r="D52" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
